--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1492.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1492.xlsx
@@ -354,7 +354,7 @@
         <v>2.035045154666068</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.912829536680256</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1492.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1492.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.324401805927031</v>
+        <v>1.575787544250488</v>
       </c>
       <c r="B1">
-        <v>2.035045154666068</v>
+        <v>4.401920795440674</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.10261344909668</v>
       </c>
       <c r="D1">
-        <v>1.912829536680256</v>
+        <v>1.247157335281372</v>
       </c>
       <c r="E1">
-        <v>0.8120348518338215</v>
+        <v>0.9212923645973206</v>
       </c>
     </row>
   </sheetData>
